--- a/country_stat.xlsx
+++ b/country_stat.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
   <si>
     <t xml:space="preserve">Group field</t>
   </si>
@@ -73,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +98,7 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,22 +169,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,8 +227,10 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
